--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15133D9-BE93-4B43-84E2-EA281DDF536A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65185E-ED60-4CD6-942F-9F4A9D7A3072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,9 @@
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>44500</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>85</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65185E-ED60-4CD6-942F-9F4A9D7A3072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F69EBC5-0536-43CA-82CA-FD7F870C9525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1485,9 @@
       <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>44503</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>108</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F69EBC5-0536-43CA-82CA-FD7F870C9525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13297A0-AAC5-4692-99FF-4A326C3AA60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -625,6 +625,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,21 +1014,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,6 +1037,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1370,14 +1373,14 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
@@ -1388,11 +1391,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1410,7 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1428,7 +1431,7 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="25">
         <v>44485</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1447,7 +1450,7 @@
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="25">
         <v>44489</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1466,7 +1469,7 @@
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="25">
         <v>44500</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1485,7 +1488,7 @@
       <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="25">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1504,7 +1507,9 @@
       <c r="B7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="25">
+        <v>44504</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>131</v>
       </c>
@@ -1521,7 +1526,7 @@
       <c r="B8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="3" t="s">
         <v>148</v>
       </c>
@@ -1538,7 +1543,7 @@
       <c r="B9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="3" t="s">
         <v>162</v>
       </c>
@@ -1549,16 +1554,16 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1568,7 +1573,7 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1589,7 +1594,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1611,7 @@
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1623,7 +1628,7 @@
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
@@ -1640,7 +1645,7 @@
       <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3">
         <v>209</v>
       </c>
@@ -1657,7 +1662,7 @@
       <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3">
         <v>53</v>
       </c>
@@ -1674,7 +1679,7 @@
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3">
         <v>424</v>
       </c>
@@ -1691,12 +1696,12 @@
       <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1706,7 +1711,7 @@
       <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1730,7 @@
       <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="3">
         <v>455</v>
       </c>
@@ -1742,7 +1747,7 @@
       <c r="B21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="3">
         <v>376</v>
       </c>
@@ -1759,7 +1764,7 @@
       <c r="B22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="3">
         <v>53</v>
       </c>
@@ -1770,11 +1775,11 @@
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
@@ -1791,7 +1796,7 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
@@ -1810,7 +1815,7 @@
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="3">
         <v>134</v>
       </c>
@@ -1827,7 +1832,7 @@
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="3">
         <v>406</v>
       </c>
@@ -1844,7 +1849,7 @@
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="3">
         <v>452</v>
       </c>
@@ -1861,7 +1866,7 @@
       <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="3">
         <v>56</v>
       </c>
@@ -1878,7 +1883,7 @@
       <c r="B29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="3">
         <v>738</v>
       </c>
@@ -1895,20 +1900,20 @@
       <c r="B30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
@@ -1927,7 +1932,7 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="3">
@@ -1946,7 +1951,7 @@
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="3">
         <v>169</v>
       </c>
@@ -1963,7 +1968,7 @@
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="3" t="s">
         <v>88</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="3">
         <v>215</v>
       </c>
@@ -1997,7 +2002,7 @@
       <c r="B36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
@@ -2014,7 +2019,7 @@
       <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
@@ -2031,12 +2036,12 @@
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="25" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="26"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2046,7 +2051,7 @@
       <c r="B39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="3">
         <v>155</v>
       </c>
@@ -2080,7 +2085,7 @@
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3">
@@ -2099,7 +2104,7 @@
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="3" t="s">
         <v>90</v>
       </c>
@@ -2116,7 +2121,7 @@
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="3" t="s">
         <v>112</v>
       </c>
@@ -2133,7 +2138,7 @@
       <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="3">
         <v>42</v>
       </c>
@@ -2150,7 +2155,7 @@
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
@@ -2167,7 +2172,7 @@
       <c r="B46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="18"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="3">
         <v>503</v>
       </c>
@@ -2199,7 +2204,7 @@
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="3">
@@ -2218,12 +2223,12 @@
       <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2233,7 +2238,7 @@
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +2257,7 @@
       <c r="B51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="3">
         <v>136</v>
       </c>
@@ -2269,7 +2274,7 @@
       <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="3">
         <v>137</v>
       </c>
@@ -2286,7 +2291,7 @@
       <c r="B53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
@@ -2303,7 +2308,7 @@
       <c r="B54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="3" t="s">
         <v>113</v>
       </c>
@@ -2320,7 +2325,7 @@
       <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="3" t="s">
         <v>136</v>
       </c>
@@ -2337,7 +2342,7 @@
       <c r="B56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
@@ -2354,12 +2359,12 @@
       <c r="B57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="25" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2369,7 +2374,7 @@
       <c r="B58" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2388,7 +2393,7 @@
       <c r="B59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="3">
         <v>77</v>
       </c>
@@ -2405,7 +2410,7 @@
       <c r="B60" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="3">
         <v>39</v>
       </c>
@@ -2422,7 +2427,7 @@
       <c r="B61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
@@ -2439,7 +2444,7 @@
       <c r="B62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
@@ -2456,7 +2461,7 @@
       <c r="B63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
@@ -2473,7 +2478,7 @@
       <c r="B64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
@@ -2484,11 +2489,11 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="3" t="s">
         <v>165</v>
       </c>
@@ -2505,7 +2510,7 @@
       <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="3">
@@ -2524,12 +2529,12 @@
       <c r="B67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="25" t="s">
+      <c r="C67" s="25"/>
+      <c r="D67" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="26"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2539,7 +2544,7 @@
       <c r="B68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +2563,7 @@
       <c r="B69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="3">
         <v>509</v>
       </c>
@@ -2569,11 +2574,11 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>
@@ -2590,7 +2595,7 @@
       <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="3">
@@ -2609,7 +2614,7 @@
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="17"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="3">
         <v>121</v>
       </c>
@@ -2626,7 +2631,7 @@
       <c r="B73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="3">
         <v>64</v>
       </c>
@@ -2643,7 +2648,7 @@
       <c r="B74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="17"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="3">
         <v>198</v>
       </c>
@@ -2660,7 +2665,7 @@
       <c r="B75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="3">
         <v>213</v>
       </c>
@@ -2677,7 +2682,7 @@
       <c r="B76" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="3">
         <v>5</v>
       </c>
@@ -2694,7 +2699,7 @@
       <c r="B77" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="19"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="16">
         <v>120</v>
       </c>
@@ -2707,7 +2712,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="20"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13297A0-AAC5-4692-99FF-4A326C3AA60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05362B-5905-49C8-850E-C50255981061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -626,7 +626,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -978,24 +978,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,6 +1005,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,20 +1044,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1373,35 +1373,35 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="17.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="13"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1410,7 +1410,7 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1419,10 +1419,10 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1431,7 +1431,7 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="14">
         <v>44485</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1440,8 +1440,10 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="28">
+        <v>44505</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1450,7 +1452,7 @@
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="14">
         <v>44489</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1459,8 +1461,10 @@
       <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="28">
+        <v>44506</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1469,7 +1473,7 @@
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="14">
         <v>44500</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1478,8 +1482,8 @@
       <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1488,7 +1492,7 @@
       <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="14">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1497,8 +1501,8 @@
       <c r="E6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1507,7 +1511,7 @@
       <c r="B7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="14">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1516,8 +1520,8 @@
       <c r="E7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1526,15 +1530,15 @@
       <c r="B8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1543,28 +1547,28 @@
       <c r="B9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1573,7 +1577,7 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1582,10 +1586,10 @@
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1594,15 +1598,15 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1611,15 +1615,15 @@
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1628,15 +1632,15 @@
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1645,15 +1649,15 @@
       <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3">
         <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1662,15 +1666,15 @@
       <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3">
         <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1679,15 +1683,15 @@
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3">
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1696,13 +1700,13 @@
       <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1711,17 +1715,17 @@
       <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1730,15 +1734,15 @@
       <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3">
         <v>455</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1747,15 +1751,15 @@
       <c r="B21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3">
         <v>376</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1764,30 +1768,30 @@
       <c r="B22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3">
         <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1796,7 +1800,7 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
@@ -1805,8 +1809,8 @@
       <c r="E24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1815,15 +1819,15 @@
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3">
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1832,15 +1836,15 @@
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3">
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1849,15 +1853,15 @@
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3">
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1866,15 +1870,15 @@
       <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3">
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1883,15 +1887,15 @@
       <c r="B29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3">
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1900,30 +1904,30 @@
       <c r="B30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="13"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1932,7 +1936,7 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="3">
@@ -1941,8 +1945,8 @@
       <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1951,15 +1955,15 @@
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3">
         <v>169</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -1968,15 +1972,15 @@
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -1985,15 +1989,15 @@
       <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3">
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="13"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -2002,15 +2006,15 @@
       <c r="B36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2019,15 +2023,15 @@
       <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -2036,13 +2040,13 @@
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="20" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="13"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -2051,32 +2055,32 @@
       <c r="B39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="3">
         <v>155</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="13"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -2085,7 +2089,7 @@
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3">
@@ -2094,8 +2098,8 @@
       <c r="E41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -2104,15 +2108,15 @@
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -2121,15 +2125,15 @@
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2138,15 +2142,15 @@
       <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2155,15 +2159,15 @@
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -2172,30 +2176,30 @@
       <c r="B46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="26"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="3">
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="13"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -2204,7 +2208,7 @@
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="3">
@@ -2213,8 +2217,8 @@
       <c r="E48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -2223,13 +2227,13 @@
       <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="13"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -2238,17 +2242,17 @@
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="13"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2257,15 +2261,15 @@
       <c r="B51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="3">
         <v>136</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="13"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -2274,15 +2278,15 @@
       <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="3">
         <v>137</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="13"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -2291,15 +2295,15 @@
       <c r="B53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -2308,15 +2312,15 @@
       <c r="B54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -2325,15 +2329,15 @@
       <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -2342,15 +2346,15 @@
       <c r="B56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -2359,13 +2363,13 @@
       <c r="B57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="20" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="13"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2374,17 +2378,17 @@
       <c r="B58" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -2393,15 +2397,15 @@
       <c r="B59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="3">
         <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="13"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -2410,15 +2414,15 @@
       <c r="B60" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="3">
         <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="13"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -2427,15 +2431,15 @@
       <c r="B61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="13"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -2444,15 +2448,15 @@
       <c r="B62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="13"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -2461,15 +2465,15 @@
       <c r="B63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="13"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2478,30 +2482,30 @@
       <c r="B64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="13"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="13"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -2510,7 +2514,7 @@
       <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="3">
@@ -2519,8 +2523,8 @@
       <c r="E66" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="13"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -2529,13 +2533,13 @@
       <c r="B67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="20" t="s">
+      <c r="C67" s="14"/>
+      <c r="D67" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="13"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -2544,17 +2548,17 @@
       <c r="B68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="13"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -2563,30 +2567,30 @@
       <c r="B69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="3">
         <v>509</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="13"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="13"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -2595,7 +2599,7 @@
       <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="3">
@@ -2604,8 +2608,8 @@
       <c r="E71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="13"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -2614,15 +2618,15 @@
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="3">
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="13"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -2631,15 +2635,15 @@
       <c r="B73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="3">
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="13"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -2648,15 +2652,15 @@
       <c r="B74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="3">
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="13"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -2665,15 +2669,15 @@
       <c r="B75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="25"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="3">
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="13"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -2682,40 +2686,40 @@
       <c r="B76" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="3">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="13"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="16">
+      <c r="C77" s="16"/>
+      <c r="D77" s="13">
         <v>120</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="13"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05362B-5905-49C8-850E-C50255981061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715F93C4-D978-4AF2-94C3-3B37D4DC77DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1020,6 +1020,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,15 +1051,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1391,16 +1391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="F1" s="27"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10"/>
@@ -1440,7 +1440,7 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="20">
         <v>44505</v>
       </c>
       <c r="G3" s="10"/>
@@ -1461,7 +1461,7 @@
       <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="20">
         <v>44506</v>
       </c>
       <c r="G4" s="10"/>
@@ -1482,7 +1482,9 @@
       <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="20">
+        <v>44507</v>
+      </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1501,7 +1503,7 @@
       <c r="E6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1520,7 +1522,7 @@
       <c r="E7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1537,7 +1539,7 @@
       <c r="E8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1554,20 +1556,20 @@
       <c r="E9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1586,7 +1588,7 @@
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="10"/>
@@ -1605,7 +1607,7 @@
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1622,7 +1624,7 @@
       <c r="E13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1639,7 +1641,7 @@
       <c r="E14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1656,7 +1658,7 @@
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1673,7 +1675,7 @@
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1690,7 +1692,7 @@
       <c r="E17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1701,11 +1703,11 @@
         <v>97</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1722,7 +1724,7 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="10"/>
@@ -1741,7 +1743,7 @@
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1758,7 +1760,7 @@
       <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1775,22 +1777,22 @@
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1809,7 +1811,7 @@
       <c r="E24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1826,7 +1828,7 @@
       <c r="E25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1843,7 +1845,7 @@
       <c r="E26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1860,7 +1862,7 @@
       <c r="E27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1877,7 +1879,7 @@
       <c r="E28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1894,7 +1896,7 @@
       <c r="E29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1905,26 +1907,26 @@
         <v>143</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="10"/>
@@ -1945,7 +1947,7 @@
       <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1962,7 +1964,7 @@
       <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1979,7 +1981,7 @@
       <c r="E34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1996,7 +1998,7 @@
       <c r="E35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2013,7 +2015,7 @@
       <c r="E36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2030,7 +2032,7 @@
       <c r="E37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2041,11 +2043,11 @@
         <v>21</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2062,7 +2064,7 @@
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="10"/>
@@ -2079,7 +2081,7 @@
       <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2098,7 +2100,7 @@
       <c r="E41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2115,7 +2117,7 @@
       <c r="E42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2132,7 +2134,7 @@
       <c r="E43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="28"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2149,7 +2151,7 @@
       <c r="E44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2166,7 +2168,7 @@
       <c r="E45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2183,7 +2185,7 @@
       <c r="E46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="28"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2198,7 +2200,7 @@
       <c r="E47" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="28"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2217,7 +2219,7 @@
       <c r="E48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="28"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2228,11 +2230,11 @@
         <v>31</v>
       </c>
       <c r="C49" s="14"/>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2249,7 +2251,7 @@
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="10"/>
@@ -2268,7 +2270,7 @@
       <c r="E51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="28"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2285,7 +2287,7 @@
       <c r="E52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="28"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2302,7 +2304,7 @@
       <c r="E53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="28"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2319,7 +2321,7 @@
       <c r="E54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="28"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2336,7 +2338,7 @@
       <c r="E55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="28"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2353,7 +2355,7 @@
       <c r="E56" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="28"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2364,11 +2366,11 @@
         <v>175</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2385,7 +2387,7 @@
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="10"/>
@@ -2404,7 +2406,7 @@
       <c r="E59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="28"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2421,7 +2423,7 @@
       <c r="E60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="28"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2438,7 +2440,7 @@
       <c r="E61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="28"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2455,7 +2457,7 @@
       <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="28"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2472,7 +2474,7 @@
       <c r="E63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="28"/>
+      <c r="F63" s="20"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2489,22 +2491,22 @@
       <c r="E64" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="28"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="28"/>
+      <c r="F65" s="20"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2523,7 +2525,7 @@
       <c r="E66" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="28"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2534,11 +2536,11 @@
         <v>32</v>
       </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="26"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2555,7 +2557,7 @@
       <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="10"/>
@@ -2574,22 +2576,22 @@
       <c r="E69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="28"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2608,7 +2610,7 @@
       <c r="E71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="28"/>
+      <c r="F71" s="20"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2625,7 +2627,7 @@
       <c r="E72" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="28"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2642,7 +2644,7 @@
       <c r="E73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F73" s="28"/>
+      <c r="F73" s="20"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2659,7 +2661,7 @@
       <c r="E74" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="28"/>
+      <c r="F74" s="20"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2676,7 +2678,7 @@
       <c r="E75" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="28"/>
+      <c r="F75" s="20"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2693,7 +2695,7 @@
       <c r="E76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="28"/>
+      <c r="F76" s="20"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -2710,7 +2712,7 @@
       <c r="E77" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="29"/>
+      <c r="F77" s="21"/>
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715F93C4-D978-4AF2-94C3-3B37D4DC77DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC5884-19B3-453B-AD32-955A27D1A15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>leetcode 81</t>
   </si>
   <si>
-    <t>搜索旋转排序数组ПI</t>
-  </si>
-  <si>
     <t>柠檬水找零</t>
   </si>
   <si>
@@ -619,6 +616,10 @@
   </si>
   <si>
     <t>修剪二叉搜索树</t>
+  </si>
+  <si>
+    <t>搜索旋转排序数组II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1373,7 +1374,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1501,60 +1502,62 @@
         <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="20"/>
+        <v>191</v>
+      </c>
+      <c r="F6" s="20">
+        <v>44508</v>
+      </c>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C7" s="14">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="10"/>
@@ -1663,10 +1666,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="3">
@@ -1690,7 +1693,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="10"/>
@@ -1712,10 +1715,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
@@ -1731,10 +1734,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="3">
@@ -1748,10 +1751,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="3">
@@ -1765,10 +1768,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="3">
@@ -1790,7 +1793,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="10"/>
@@ -1809,7 +1812,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="10"/>
@@ -1826,7 +1829,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="10"/>
@@ -1843,7 +1846,7 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="10"/>
@@ -1860,7 +1863,7 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="10"/>
@@ -1877,34 +1880,34 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="3">
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="25" t="s">
@@ -1996,7 +1999,7 @@
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="10"/>
@@ -2013,24 +2016,24 @@
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="10"/>
@@ -2052,10 +2055,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
@@ -2129,7 +2132,7 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>63</v>
@@ -2149,7 +2152,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="10"/>
@@ -2166,24 +2169,24 @@
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="10"/>
@@ -2198,7 +2201,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="10"/>
@@ -2217,7 +2220,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="10"/>
@@ -2292,10 +2295,10 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="3">
@@ -2309,17 +2312,17 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="10"/>
@@ -2329,14 +2332,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="10"/>
@@ -2346,14 +2349,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="10"/>
@@ -2363,7 +2366,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="25" t="s">
@@ -2378,7 +2381,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="3" t="s">
@@ -2394,10 +2397,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="3">
@@ -2414,7 +2417,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="3">
@@ -2431,7 +2434,7 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="3">
@@ -2448,14 +2451,14 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="10"/>
@@ -2465,14 +2468,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="10"/>
@@ -2482,14 +2485,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="10"/>
@@ -2501,10 +2504,10 @@
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
       <c r="D65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="10"/>
@@ -2523,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="10"/>
@@ -2625,7 +2628,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="10"/>
@@ -2642,7 +2645,7 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="10"/>
@@ -2659,7 +2662,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="10"/>
@@ -2676,41 +2679,41 @@
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="3">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="13">
         <v>120</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="10"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC5884-19B3-453B-AD32-955A27D1A15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9AB543-0E7C-48F9-A4FC-174420B09A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1525,9 @@
       <c r="E7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="20">
+        <v>44509</v>
+      </c>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9AB543-0E7C-48F9-A4FC-174420B09A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A4EBEA-4632-4C74-ACDA-7630B44B7B96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1544,9 @@
       <c r="E8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="20">
+        <v>44510</v>
+      </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A4EBEA-4632-4C74-ACDA-7630B44B7B96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA20ADF-D2E2-45AA-B5AA-1B3581D760B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1563,9 @@
       <c r="E9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>44511</v>
+      </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA20ADF-D2E2-45AA-B5AA-1B3581D760B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F3C43-E117-43E4-B6E8-B32D2393257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,9 @@
       <c r="B8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>44512</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>147</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F3C43-E117-43E4-B6E8-B32D2393257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4358E55-B5B0-4D64-BCF1-2000E4886800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -670,7 +670,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +692,12 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -963,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1058,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,7 +1389,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1447,13 +1462,13 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="32">
         <v>44489</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1552,13 +1567,15 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="32">
+        <v>44513</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>161</v>
       </c>
@@ -1611,7 +1628,9 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14">
+        <v>44513</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4358E55-B5B0-4D64-BCF1-2000E4886800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB640F11-BBA9-4911-B669-39B20F181DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1036,6 +1036,15 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,15 +1067,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1407,11 +1407,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
@@ -1462,13 +1462,13 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="24">
         <v>44489</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1567,13 +1567,13 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="24">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1588,16 +1588,16 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,9 @@
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14">
+        <v>44514</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1733,11 +1735,11 @@
         <v>97</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1811,11 +1813,11 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
@@ -1937,19 +1939,19 @@
         <v>142</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2073,11 +2075,11 @@
         <v>21</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2260,11 +2262,11 @@
         <v>31</v>
       </c>
       <c r="C49" s="14"/>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2396,11 +2398,11 @@
         <v>174</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2525,11 +2527,11 @@
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="3" t="s">
         <v>164</v>
       </c>
@@ -2566,11 +2568,11 @@
         <v>32</v>
       </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2610,11 +2612,11 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB640F11-BBA9-4911-B669-39B20F181DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D99E91-EF16-4282-BEB0-AFA39AAC1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1666,9 @@
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>44515</v>
+      </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D99E91-EF16-4282-BEB0-AFA39AAC1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4430D-B9FA-4CF9-A92A-126866EF0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1685,9 @@
       <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>44515</v>
+      </c>
       <c r="D15" s="3">
         <v>209</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4430D-B9FA-4CF9-A92A-126866EF0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1346CAA-7449-4763-B1AB-3AC78C18E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,9 @@
       <c r="B16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14">
+        <v>44516</v>
+      </c>
       <c r="D16" s="3">
         <v>53</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1346CAA-7449-4763-B1AB-3AC78C18E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923592A-6E6D-4A20-9474-7310946FC9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -24,6 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>张三</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{0C511D8D-04EF-4A20-A354-7B0B9DF0BB6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>张三:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+？？？</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
   <si>
@@ -629,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +705,23 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -969,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1124,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,11 +1451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1717,13 +1783,15 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="14"/>
+      <c r="B17" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="35">
+        <v>44517</v>
+      </c>
       <c r="D17" s="3">
         <v>424</v>
       </c>
@@ -1734,13 +1802,13 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="14"/>
+      <c r="B18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="28" t="s">
         <v>10</v>
       </c>
@@ -1749,13 +1817,13 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +1842,9 @@
       <c r="B20" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>44517</v>
+      </c>
       <c r="D20" s="3">
         <v>455</v>
       </c>
@@ -2780,5 +2850,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923592A-6E6D-4A20-9474-7310946FC9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81492A3-B31B-405B-943D-3A104EDF1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1102,6 +1102,15 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,15 +1133,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1473,11 +1473,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
@@ -1654,16 +1654,16 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1783,13 +1783,13 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="27">
         <v>44517</v>
       </c>
       <c r="D17" s="3">
@@ -1802,28 +1802,28 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +1861,9 @@
       <c r="B21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>44518</v>
+      </c>
       <c r="D21" s="3">
         <v>376</v>
       </c>
@@ -1889,11 +1891,11 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
@@ -2015,19 +2017,19 @@
         <v>142</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2151,11 +2153,11 @@
         <v>21</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2338,11 +2340,11 @@
         <v>31</v>
       </c>
       <c r="C49" s="14"/>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2474,11 +2476,11 @@
         <v>174</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="32"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2603,11 +2605,11 @@
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="3" t="s">
         <v>164</v>
       </c>
@@ -2644,11 +2646,11 @@
         <v>32</v>
       </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="32"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2688,11 +2690,11 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81492A3-B31B-405B-943D-3A104EDF1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DF79D-94E0-4056-970B-F27817166C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1880,9 @@
       <c r="B22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14">
+        <v>44518</v>
+      </c>
       <c r="D22" s="3">
         <v>53</v>
       </c>
@@ -1931,7 +1933,9 @@
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14">
+        <v>44519</v>
+      </c>
       <c r="D25" s="3">
         <v>134</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DF79D-94E0-4056-970B-F27817166C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6933C-4437-4397-95E0-40851D9347C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1952,9 @@
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="14">
+        <v>44520</v>
+      </c>
       <c r="D26" s="3">
         <v>406</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6933C-4437-4397-95E0-40851D9347C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4AD1CD-6CAC-4131-AD56-792E8F426EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -303,358 +303,360 @@
     <t>反转链表</t>
   </si>
   <si>
+    <t>翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>剑指Offer 56 - I</t>
+  </si>
+  <si>
+    <t>数组中数字出现的次数</t>
+  </si>
+  <si>
+    <t>leetcode 225</t>
+  </si>
+  <si>
+    <t>用队列实现栈</t>
+  </si>
+  <si>
+    <t>leetcode 145</t>
+  </si>
+  <si>
+    <t>二叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>地图分析</t>
+  </si>
+  <si>
+    <t>leetcode 141</t>
+  </si>
+  <si>
+    <t>环形链表II</t>
+  </si>
+  <si>
+    <t>leetcode 33</t>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>剑指Offer 40</t>
+  </si>
+  <si>
+    <t>最小的k个数</t>
+  </si>
+  <si>
+    <t>剑指Offer 59 - II</t>
+  </si>
+  <si>
+    <t>队列的最大值</t>
+  </si>
+  <si>
+    <t>只出现一次的数字IⅡI</t>
+  </si>
+  <si>
+    <t>组合总和I</t>
+  </si>
+  <si>
+    <t>使用最小花费爬楼梯</t>
+  </si>
+  <si>
+    <t>剑指offer3</t>
+  </si>
+  <si>
+    <t>数组中重复的数字</t>
+  </si>
+  <si>
+    <t>环形链表</t>
+  </si>
+  <si>
+    <t>左旋转字符串</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剑指Offer 56 - </t>
+  </si>
+  <si>
+    <t>数组中数字出现的次数II</t>
+  </si>
+  <si>
+    <t>leetcode 1047</t>
+  </si>
+  <si>
+    <t>删除字符串中的所有相邻重复项</t>
+  </si>
+  <si>
+    <t>剑指Offer 27</t>
+  </si>
+  <si>
+    <t>二叉树的镜像</t>
+  </si>
+  <si>
+    <t>leetcode 328</t>
+  </si>
+  <si>
+    <t>奇偶链表</t>
+  </si>
+  <si>
+    <t>leetcode 81</t>
+  </si>
+  <si>
+    <t>柠檬水找零</t>
+  </si>
+  <si>
+    <t>数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>剑指Offer 59 - I</t>
+  </si>
+  <si>
+    <t>剑指Offer 65</t>
+  </si>
+  <si>
+    <t>不用加减乘除做加法</t>
+  </si>
+  <si>
+    <t>组合总和IHI</t>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>leetcode 75</t>
+  </si>
+  <si>
+    <t>颜色分类</t>
+  </si>
+  <si>
+    <t>leetcode 86</t>
+  </si>
+  <si>
+    <t>分隔链表</t>
+  </si>
+  <si>
+    <t>leetcode 13</t>
+  </si>
+  <si>
+    <t>罗马数字转整数</t>
+  </si>
+  <si>
+    <t>leetcode 349</t>
+  </si>
+  <si>
+    <t>两个数组的交集</t>
+  </si>
+  <si>
+    <t>leetcode 1021</t>
+  </si>
+  <si>
+    <t>删除最外层的括号</t>
+  </si>
+  <si>
+    <t>剑指Offer 28</t>
+  </si>
+  <si>
+    <t>对称的二叉树</t>
+  </si>
+  <si>
+    <t>leetcode 15</t>
+  </si>
+  <si>
+    <t>三数之和</t>
+  </si>
+  <si>
+    <t>leetcode 153</t>
+  </si>
+  <si>
+    <t>寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机IП</t>
+  </si>
+  <si>
+    <t>合并K个升序链表</t>
+  </si>
+  <si>
+    <t>接雨水</t>
+  </si>
+  <si>
+    <t>剑指Offer 15</t>
+  </si>
+  <si>
+    <t>二进制中1的个数</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>最小路径和</t>
+  </si>
+  <si>
+    <t>leetcode 54</t>
+  </si>
+  <si>
+    <t>螺旋矩阵</t>
+  </si>
+  <si>
+    <t>leetcode 28</t>
+  </si>
+  <si>
+    <t>实现strStrO</t>
+  </si>
+  <si>
+    <t>剑指Offer 55-I</t>
+  </si>
+  <si>
+    <t>二叉树的深度</t>
+  </si>
+  <si>
+    <t>leetcode 18</t>
+  </si>
+  <si>
+    <t>四数之和</t>
+  </si>
+  <si>
+    <t>leetcode 74</t>
+  </si>
+  <si>
+    <t>搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>替换后的最长重复字符</t>
+  </si>
+  <si>
+    <t>加油站</t>
+  </si>
+  <si>
+    <t>寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>下一个更大元素I</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>全排列II</t>
+  </si>
+  <si>
+    <t>打家劫舍</t>
+  </si>
+  <si>
+    <t>leetcode 560</t>
+  </si>
+  <si>
+    <t>和为K的子数组</t>
+  </si>
+  <si>
+    <t>leetcode 202</t>
+  </si>
+  <si>
+    <t>快乐数</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>剑指Offer53- II</t>
+  </si>
+  <si>
+    <t>0～n-1中缺失的数字</t>
+  </si>
+  <si>
+    <t>根据身高重建队列</t>
+  </si>
+  <si>
+    <t>面试题08.12</t>
+  </si>
+  <si>
+    <t>八皇后</t>
+  </si>
+  <si>
+    <t>打家劫舍II</t>
+  </si>
+  <si>
+    <t>左叶子之和</t>
+  </si>
+  <si>
+    <t>用最少数量的箭引爆气球</t>
+  </si>
+  <si>
+    <t>下一个更大元素II</t>
+  </si>
+  <si>
+    <t>N皇后</t>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+  </si>
+  <si>
+    <t>leetcode 61</t>
+  </si>
+  <si>
+    <t>旋转链表</t>
+  </si>
+  <si>
+    <t>求根到叶子节点数字之和</t>
+  </si>
+  <si>
+    <t>合并区间</t>
+  </si>
+  <si>
+    <t>不同字符的最小子序列</t>
+  </si>
+  <si>
+    <t>三角形最小路径和</t>
+  </si>
+  <si>
+    <t>剑指Offer 22</t>
+  </si>
+  <si>
+    <t>链表中倒数第k个节点</t>
+  </si>
+  <si>
+    <t>从中序与后序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>单调递增的数字</t>
+  </si>
+  <si>
+    <t>剑指Offer 52:</t>
+  </si>
+  <si>
+    <t>两个链表的第一个公共节点</t>
+  </si>
+  <si>
+    <t>剑指Offer o7</t>
+  </si>
+  <si>
+    <t>重建二叉树</t>
+  </si>
+  <si>
+    <t>二叉搜索树中的搜索</t>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>不同的二叉搜索树</t>
+  </si>
+  <si>
+    <t>二叉搜索树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>修剪二叉搜索树</t>
+  </si>
+  <si>
+    <t>搜索旋转排序数组II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer 58-II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>leetcode 151</t>
-  </si>
-  <si>
-    <t>翻转字符串里的单词</t>
-  </si>
-  <si>
-    <t>剑指Offer 56 - I</t>
-  </si>
-  <si>
-    <t>数组中数字出现的次数</t>
-  </si>
-  <si>
-    <t>leetcode 225</t>
-  </si>
-  <si>
-    <t>用队列实现栈</t>
-  </si>
-  <si>
-    <t>leetcode 145</t>
-  </si>
-  <si>
-    <t>二叉树的后序遍历</t>
-  </si>
-  <si>
-    <t>地图分析</t>
-  </si>
-  <si>
-    <t>leetcode 141</t>
-  </si>
-  <si>
-    <t>环形链表II</t>
-  </si>
-  <si>
-    <t>leetcode 33</t>
-  </si>
-  <si>
-    <t>搜索旋转排序数组</t>
-  </si>
-  <si>
-    <t>无重复字符的最长子串</t>
-  </si>
-  <si>
-    <t>剑指Offer 40</t>
-  </si>
-  <si>
-    <t>最小的k个数</t>
-  </si>
-  <si>
-    <t>剑指Offer 59 - II</t>
-  </si>
-  <si>
-    <t>队列的最大值</t>
-  </si>
-  <si>
-    <t>只出现一次的数字IⅡI</t>
-  </si>
-  <si>
-    <t>组合总和I</t>
-  </si>
-  <si>
-    <t>使用最小花费爬楼梯</t>
-  </si>
-  <si>
-    <t>剑指offer3</t>
-  </si>
-  <si>
-    <t>数组中重复的数字</t>
-  </si>
-  <si>
-    <t>环形链表</t>
-  </si>
-  <si>
-    <t>剑指offer 58</t>
-  </si>
-  <si>
-    <t>左旋转字符串</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剑指Offer 56 - </t>
-  </si>
-  <si>
-    <t>数组中数字出现的次数II</t>
-  </si>
-  <si>
-    <t>leetcode 1047</t>
-  </si>
-  <si>
-    <t>删除字符串中的所有相邻重复项</t>
-  </si>
-  <si>
-    <t>剑指Offer 27</t>
-  </si>
-  <si>
-    <t>二叉树的镜像</t>
-  </si>
-  <si>
-    <t>leetcode 328</t>
-  </si>
-  <si>
-    <t>奇偶链表</t>
-  </si>
-  <si>
-    <t>leetcode 81</t>
-  </si>
-  <si>
-    <t>柠檬水找零</t>
-  </si>
-  <si>
-    <t>数组中的第K个最大元素</t>
-  </si>
-  <si>
-    <t>剑指Offer 59 - I</t>
-  </si>
-  <si>
-    <t>剑指Offer 65</t>
-  </si>
-  <si>
-    <t>不用加减乘除做加法</t>
-  </si>
-  <si>
-    <t>组合总和IHI</t>
-  </si>
-  <si>
-    <t>买卖股票的最佳时机</t>
-  </si>
-  <si>
-    <t>leetcode 75</t>
-  </si>
-  <si>
-    <t>颜色分类</t>
-  </si>
-  <si>
-    <t>leetcode 86</t>
-  </si>
-  <si>
-    <t>分隔链表</t>
-  </si>
-  <si>
-    <t>leetcode 13</t>
-  </si>
-  <si>
-    <t>罗马数字转整数</t>
-  </si>
-  <si>
-    <t>leetcode 349</t>
-  </si>
-  <si>
-    <t>两个数组的交集</t>
-  </si>
-  <si>
-    <t>leetcode 1021</t>
-  </si>
-  <si>
-    <t>删除最外层的括号</t>
-  </si>
-  <si>
-    <t>剑指Offer 28</t>
-  </si>
-  <si>
-    <t>对称的二叉树</t>
-  </si>
-  <si>
-    <t>leetcode 15</t>
-  </si>
-  <si>
-    <t>三数之和</t>
-  </si>
-  <si>
-    <t>leetcode 153</t>
-  </si>
-  <si>
-    <t>寻找旋转排序数组中的最小值</t>
-  </si>
-  <si>
-    <t>买卖股票的最佳时机IП</t>
-  </si>
-  <si>
-    <t>合并K个升序链表</t>
-  </si>
-  <si>
-    <t>接雨水</t>
-  </si>
-  <si>
-    <t>剑指Offer 15</t>
-  </si>
-  <si>
-    <t>二进制中1的个数</t>
-  </si>
-  <si>
-    <t>全排列</t>
-  </si>
-  <si>
-    <t>最小路径和</t>
-  </si>
-  <si>
-    <t>leetcode 54</t>
-  </si>
-  <si>
-    <t>螺旋矩阵</t>
-  </si>
-  <si>
-    <t>leetcode 28</t>
-  </si>
-  <si>
-    <t>实现strStrO</t>
-  </si>
-  <si>
-    <t>剑指Offer 55-I</t>
-  </si>
-  <si>
-    <t>二叉树的深度</t>
-  </si>
-  <si>
-    <t>leetcode 18</t>
-  </si>
-  <si>
-    <t>四数之和</t>
-  </si>
-  <si>
-    <t>leetcode 74</t>
-  </si>
-  <si>
-    <t>搜索二维矩阵</t>
-  </si>
-  <si>
-    <t>替换后的最长重复字符</t>
-  </si>
-  <si>
-    <t>加油站</t>
-  </si>
-  <si>
-    <t>寻找两个正序数组的中位数</t>
-  </si>
-  <si>
-    <t>下一个更大元素I</t>
-  </si>
-  <si>
-    <t>子集</t>
-  </si>
-  <si>
-    <t>全排列II</t>
-  </si>
-  <si>
-    <t>打家劫舍</t>
-  </si>
-  <si>
-    <t>leetcode 560</t>
-  </si>
-  <si>
-    <t>和为K的子数组</t>
-  </si>
-  <si>
-    <t>leetcode 202</t>
-  </si>
-  <si>
-    <t>快乐数</t>
-  </si>
-  <si>
-    <t>二叉树的层序遍历</t>
-  </si>
-  <si>
-    <t>剑指Offer53- II</t>
-  </si>
-  <si>
-    <t>0～n-1中缺失的数字</t>
-  </si>
-  <si>
-    <t>根据身高重建队列</t>
-  </si>
-  <si>
-    <t>面试题08.12</t>
-  </si>
-  <si>
-    <t>八皇后</t>
-  </si>
-  <si>
-    <t>打家劫舍II</t>
-  </si>
-  <si>
-    <t>左叶子之和</t>
-  </si>
-  <si>
-    <t>用最少数量的箭引爆气球</t>
-  </si>
-  <si>
-    <t>下一个更大元素II</t>
-  </si>
-  <si>
-    <t>N皇后</t>
-  </si>
-  <si>
-    <t>最长回文子串</t>
-  </si>
-  <si>
-    <t>leetcode 61</t>
-  </si>
-  <si>
-    <t>旋转链表</t>
-  </si>
-  <si>
-    <t>求根到叶子节点数字之和</t>
-  </si>
-  <si>
-    <t>合并区间</t>
-  </si>
-  <si>
-    <t>不同字符的最小子序列</t>
-  </si>
-  <si>
-    <t>三角形最小路径和</t>
-  </si>
-  <si>
-    <t>剑指Offer 22</t>
-  </si>
-  <si>
-    <t>链表中倒数第k个节点</t>
-  </si>
-  <si>
-    <t>从中序与后序遍历序列构造二叉树</t>
-  </si>
-  <si>
-    <t>单调递增的数字</t>
-  </si>
-  <si>
-    <t>剑指Offer 52:</t>
-  </si>
-  <si>
-    <t>两个链表的第一个公共节点</t>
-  </si>
-  <si>
-    <t>剑指Offer o7</t>
-  </si>
-  <si>
-    <t>重建二叉树</t>
-  </si>
-  <si>
-    <t>二叉搜索树中的搜索</t>
-  </si>
-  <si>
-    <t>验证二叉搜索树</t>
-  </si>
-  <si>
-    <t>不同的二叉搜索树</t>
-  </si>
-  <si>
-    <t>二叉搜索树的最近公共祖先</t>
-  </si>
-  <si>
-    <t>修剪二叉搜索树</t>
-  </si>
-  <si>
-    <t>搜索旋转排序数组II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1455,7 +1457,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1559,10 +1561,10 @@
         <v>44500</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F5" s="20">
         <v>44507</v>
@@ -1571,19 +1573,19 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C6" s="14">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="20">
         <v>44508</v>
@@ -1592,19 +1594,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="14">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="20">
         <v>44509</v>
@@ -1613,19 +1615,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="14">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F8" s="20">
         <v>44510</v>
@@ -1634,19 +1636,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="24">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F9" s="20">
         <v>44511</v>
@@ -1739,17 +1741,17 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="14">
         <v>44515</v>
@@ -1765,10 +1767,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="14">
         <v>44516</v>
@@ -1787,7 +1789,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="27">
         <v>44517</v>
@@ -1796,17 +1798,17 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="31" t="s">
@@ -1818,10 +1820,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="3" t="s">
@@ -1837,10 +1839,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="14">
         <v>44517</v>
@@ -1856,10 +1858,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="14">
         <v>44518</v>
@@ -1875,10 +1877,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="14">
         <v>44518</v>
@@ -1902,7 +1904,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="10"/>
@@ -1921,7 +1923,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="10"/>
@@ -1940,7 +1942,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="10"/>
@@ -1959,68 +1961,74 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="24">
+        <v>44521</v>
+      </c>
       <c r="D27" s="3">
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="C28" s="14">
+        <v>44521</v>
+      </c>
       <c r="D28" s="3">
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="C29" s="14">
+        <v>44522</v>
+      </c>
       <c r="D29" s="3">
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="31" t="s">
@@ -2092,61 +2100,61 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="3">
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="10"/>
@@ -2168,10 +2176,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
@@ -2228,10 +2236,10 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="10"/>
@@ -2245,7 +2253,7 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>63</v>
@@ -2255,51 +2263,51 @@
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="10"/>
@@ -2314,7 +2322,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="10"/>
@@ -2333,7 +2341,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="10"/>
@@ -2374,10 +2382,10 @@
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="3">
@@ -2391,10 +2399,10 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="3">
@@ -2408,34 +2416,34 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="10"/>
@@ -2445,14 +2453,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="10"/>
@@ -2462,14 +2470,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="10"/>
@@ -2479,7 +2487,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="31" t="s">
@@ -2494,7 +2502,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="3" t="s">
@@ -2510,10 +2518,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="3">
@@ -2530,7 +2538,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="3">
@@ -2547,14 +2555,14 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="10"/>
@@ -2564,14 +2572,14 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="10"/>
@@ -2581,14 +2589,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="10"/>
@@ -2598,14 +2606,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="10"/>
@@ -2617,10 +2625,10 @@
       <c r="B65" s="29"/>
       <c r="C65" s="30"/>
       <c r="D65" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="10"/>
@@ -2639,7 +2647,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="10"/>
@@ -2683,7 +2691,7 @@
         <v>1162</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="3">
@@ -2724,7 +2732,7 @@
         <v>746</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="10"/>
@@ -2741,7 +2749,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="10"/>
@@ -2758,75 +2766,75 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="3">
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="3">
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="3">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="13">
         <v>120</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="10"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4AD1CD-6CAC-4131-AD56-792E8F426EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B720108-124B-4F75-82B6-F17C809BE8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -501,9 +501,6 @@
     <t>leetcode 28</t>
   </si>
   <si>
-    <t>实现strStrO</t>
-  </si>
-  <si>
     <t>剑指Offer 55-I</t>
   </si>
   <si>
@@ -657,6 +654,10 @@
   </si>
   <si>
     <t>leetcode 151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现strStr()</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1456,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1586,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="20">
         <v>44508</v>
@@ -1624,10 +1625,10 @@
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F8" s="20">
         <v>44510</v>
@@ -1636,19 +1637,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>155</v>
       </c>
       <c r="C9" s="24">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F9" s="20">
         <v>44511</v>
@@ -1798,7 +1799,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="10"/>
@@ -1839,10 +1840,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C20" s="14">
         <v>44517</v>
@@ -1858,10 +1859,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C21" s="14">
         <v>44518</v>
@@ -1877,10 +1878,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C22" s="14">
         <v>44518</v>
@@ -1942,7 +1943,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="10"/>
@@ -1961,14 +1962,14 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>74</v>
@@ -1980,14 +1981,14 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>97</v>
@@ -1999,7 +2000,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="10"/>
@@ -2018,19 +2019,21 @@
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="14"/>
+      <c r="B30" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="24">
+        <v>44523</v>
+      </c>
       <c r="D30" s="31" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="10"/>
@@ -2176,10 +2179,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
@@ -2290,7 +2293,7 @@
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="10"/>
@@ -2307,7 +2310,7 @@
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="10"/>
@@ -2322,7 +2325,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="10"/>
@@ -2341,7 +2344,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="10"/>
@@ -2433,10 +2436,10 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
@@ -2453,7 +2456,7 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
@@ -2470,14 +2473,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="10"/>
@@ -2487,7 +2490,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="31" t="s">
@@ -2502,7 +2505,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="3" t="s">
@@ -2518,10 +2521,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="3">
@@ -2538,7 +2541,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="3">
@@ -2555,7 +2558,7 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="3">
@@ -2572,7 +2575,7 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="3">
@@ -2589,7 +2592,7 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="3">
@@ -2606,14 +2609,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="10"/>
@@ -2625,10 +2628,10 @@
       <c r="B65" s="29"/>
       <c r="C65" s="30"/>
       <c r="D65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="10"/>
@@ -2647,7 +2650,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="10"/>
@@ -2783,7 +2786,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="10"/>
@@ -2800,7 +2803,7 @@
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="10"/>
@@ -2817,24 +2820,24 @@
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="13">
         <v>120</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="10"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B720108-124B-4F75-82B6-F17C809BE8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569504A-3A55-4F9C-999A-2CC301EA488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,9 @@
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20">
+        <v>44524</v>
+      </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569504A-3A55-4F9C-999A-2CC301EA488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D81A98-82C5-4650-8347-1C68ECBC7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>在排序数组中查找元素的第一个和最后一个</t>
   </si>
   <si>
-    <t>剑指Offer 59- I</t>
-  </si>
-  <si>
     <t>滑动窗口的最大值</t>
   </si>
   <si>
@@ -658,6 +655,10 @@
   </si>
   <si>
     <t>实现strStr()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 59- I</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,6 +1137,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,7 +1465,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1553,19 +1560,19 @@
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C5" s="14">
         <v>44500</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F5" s="20">
         <v>44507</v>
@@ -1574,19 +1581,19 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C6" s="14">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="20">
         <v>44508</v>
@@ -1595,19 +1602,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C7" s="14">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F7" s="20">
         <v>44509</v>
@@ -1616,19 +1623,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C8" s="14">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F8" s="20">
         <v>44510</v>
@@ -1637,19 +1644,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="C9" s="24">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F9" s="20">
         <v>44511</v>
@@ -1721,21 +1728,23 @@
       <c r="C13" s="14">
         <v>44514</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="37">
+        <v>44525</v>
+      </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C14" s="14">
         <v>44515</v>
@@ -1744,17 +1753,17 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="14">
         <v>44515</v>
@@ -1770,10 +1779,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C16" s="14">
         <v>44516</v>
@@ -1789,10 +1798,10 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="27">
         <v>44517</v>
@@ -1801,17 +1810,17 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="31" t="s">
@@ -1823,10 +1832,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>117</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="3" t="s">
@@ -1842,10 +1851,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="C20" s="14">
         <v>44517</v>
@@ -1861,10 +1870,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C21" s="14">
         <v>44518</v>
@@ -1873,17 +1882,17 @@
         <v>376</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C22" s="14">
         <v>44518</v>
@@ -1907,7 +1916,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="10"/>
@@ -1926,7 +1935,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="10"/>
@@ -1945,7 +1954,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="10"/>
@@ -1964,17 +1973,17 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="24">
         <v>44521</v>
@@ -1983,17 +1992,17 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="14">
         <v>44521</v>
@@ -2002,17 +2011,17 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C29" s="14">
         <v>44522</v>
@@ -2021,17 +2030,17 @@
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="24">
         <v>44523</v>
@@ -2091,7 +2100,7 @@
         <v>169</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="10"/>
@@ -2105,61 +2114,61 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="3">
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="10"/>
@@ -2181,10 +2190,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
@@ -2227,7 +2236,7 @@
         <v>739</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="10"/>
@@ -2241,10 +2250,10 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="10"/>
@@ -2258,61 +2267,61 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="10"/>
@@ -2327,7 +2336,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="10"/>
@@ -2346,7 +2355,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="10"/>
@@ -2387,10 +2396,10 @@
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="3">
@@ -2404,51 +2413,51 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="3">
         <v>137</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="10"/>
@@ -2458,14 +2467,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="10"/>
@@ -2475,14 +2484,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="10"/>
@@ -2492,7 +2501,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="31" t="s">
@@ -2507,7 +2516,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="3" t="s">
@@ -2523,10 +2532,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="3">
@@ -2543,14 +2552,14 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="3">
         <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="10"/>
@@ -2560,14 +2569,14 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="10"/>
@@ -2577,14 +2586,14 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="10"/>
@@ -2594,14 +2603,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="10"/>
@@ -2611,14 +2620,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="10"/>
@@ -2630,10 +2639,10 @@
       <c r="B65" s="29"/>
       <c r="C65" s="30"/>
       <c r="D65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="10"/>
@@ -2652,7 +2661,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="10"/>
@@ -2696,7 +2705,7 @@
         <v>1162</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="3">
@@ -2718,7 +2727,7 @@
         <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="10"/>
@@ -2737,7 +2746,7 @@
         <v>746</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="10"/>
@@ -2754,7 +2763,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="10"/>
@@ -2771,75 +2780,75 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="3">
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="3">
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="3">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="13">
         <v>120</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="10"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15131\Desktop\leetcode\lc经典题目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D81A98-82C5-4650-8347-1C68ECBC7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3520F4-7DD9-4F5D-885A-C85048B3B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1115,6 +1115,12 @@
     <xf numFmtId="176" fontId="4" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,12 +1143,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,6 +1154,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1464,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1483,11 +1488,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
@@ -1664,16 +1669,16 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1728,15 +1733,13 @@
       <c r="C13" s="14">
         <v>44514</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="37">
-        <v>44525</v>
-      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1749,13 +1752,15 @@
       <c r="C14" s="14">
         <v>44515</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="28">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="29">
+        <v>44525</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1774,7 +1779,9 @@
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="20">
+        <v>44526</v>
+      </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1823,11 +1830,11 @@
         <v>116</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1907,11 +1914,11 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
@@ -2045,19 +2052,19 @@
       <c r="C30" s="24">
         <v>44523</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2181,11 +2188,11 @@
         <v>21</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="32"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2368,11 +2375,11 @@
         <v>31</v>
       </c>
       <c r="C49" s="14"/>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2504,11 +2511,11 @@
         <v>170</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2633,11 +2640,11 @@
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="3" t="s">
         <v>160</v>
       </c>
@@ -2674,11 +2681,11 @@
         <v>32</v>
       </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="32"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="34"/>
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2718,11 +2725,11 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3520F4-7DD9-4F5D-885A-C85048B3B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9124FA-BA1D-46A2-BD60-0EDE02CE4065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1800,9 @@
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="20">
+        <v>44527</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9124FA-BA1D-46A2-BD60-0EDE02CE4065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9CC11C-31EF-4D76-9DB0-7A0BE9BC0510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,9 @@
       <c r="E17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="20">
+        <v>44528</v>
+      </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9CC11C-31EF-4D76-9DB0-7A0BE9BC0510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D660C9-22F3-4EB4-B2F6-F78E170D249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2419,9 @@
       <c r="E51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="20">
+        <v>44529</v>
+      </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D660C9-22F3-4EB4-B2F6-F78E170D249D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C7FC9-B826-452A-96AD-964845C05493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <t>每日温度</t>
   </si>
   <si>
-    <t>只出现一次的数字ⅡI</t>
-  </si>
-  <si>
     <t>组合总和</t>
   </si>
   <si>
@@ -659,6 +656,10 @@
   </si>
   <si>
     <t>剑指Offer 59- I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1470,7 +1471,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1565,19 +1566,19 @@
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C5" s="14">
         <v>44500</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F5" s="20">
         <v>44507</v>
@@ -1586,19 +1587,19 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C6" s="14">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="20">
         <v>44508</v>
@@ -1607,19 +1608,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C7" s="14">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F7" s="20">
         <v>44509</v>
@@ -1628,19 +1629,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C8" s="14">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F8" s="20">
         <v>44510</v>
@@ -1649,19 +1650,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>153</v>
       </c>
       <c r="C9" s="24">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F9" s="20">
         <v>44511</v>
@@ -1734,7 +1735,7 @@
         <v>44514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1744,10 +1745,10 @@
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C14" s="14">
         <v>44515</v>
@@ -1756,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="29">
         <v>44525</v>
@@ -1765,10 +1766,10 @@
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="14">
         <v>44515</v>
@@ -1786,10 +1787,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C16" s="14">
         <v>44516</v>
@@ -1807,10 +1808,10 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="27">
         <v>44517</v>
@@ -1819,7 +1820,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="20">
         <v>44528</v>
@@ -1828,10 +1829,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="33" t="s">
@@ -1843,10 +1844,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="3" t="s">
@@ -1862,10 +1863,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C20" s="14">
         <v>44517</v>
@@ -1881,10 +1882,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C21" s="14">
         <v>44518</v>
@@ -1900,10 +1901,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C22" s="14">
         <v>44518</v>
@@ -1927,7 +1928,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="10"/>
@@ -1946,7 +1947,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="10"/>
@@ -1965,7 +1966,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="10"/>
@@ -1984,17 +1985,17 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="24">
         <v>44521</v>
@@ -2003,17 +2004,17 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="14">
         <v>44521</v>
@@ -2022,17 +2023,17 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C29" s="14">
         <v>44522</v>
@@ -2041,17 +2042,17 @@
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="24">
         <v>44523</v>
@@ -2125,61 +2126,61 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="3">
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="10"/>
@@ -2201,10 +2202,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
@@ -2261,10 +2262,10 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="10"/>
@@ -2278,7 +2279,7 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>62</v>
@@ -2288,51 +2289,51 @@
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="10"/>
@@ -2347,7 +2348,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="10"/>
@@ -2366,7 +2367,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="10"/>
@@ -2407,10 +2408,10 @@
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="3">
@@ -2426,51 +2427,53 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C52" s="14"/>
-      <c r="D52" s="3">
+      <c r="D52" s="28">
         <v>137</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="20"/>
+      <c r="E52" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="29">
+        <v>44530</v>
+      </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="10"/>
@@ -2480,14 +2483,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="10"/>
@@ -2497,14 +2500,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="3">
         <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="10"/>
@@ -2514,7 +2517,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="33" t="s">
@@ -2529,7 +2532,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="3" t="s">
@@ -2545,10 +2548,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="3">
@@ -2565,14 +2568,14 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="3">
         <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="10"/>
@@ -2582,14 +2585,14 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="10"/>
@@ -2599,14 +2602,14 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="10"/>
@@ -2616,14 +2619,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="10"/>
@@ -2633,14 +2636,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="10"/>
@@ -2652,10 +2655,10 @@
       <c r="B65" s="31"/>
       <c r="C65" s="32"/>
       <c r="D65" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="10"/>
@@ -2674,7 +2677,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="10"/>
@@ -2718,7 +2721,7 @@
         <v>1162</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="3">
@@ -2740,7 +2743,7 @@
         <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="10"/>
@@ -2759,7 +2762,7 @@
         <v>746</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="10"/>
@@ -2776,7 +2779,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="10"/>
@@ -2793,75 +2796,75 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="3">
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="3">
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="3">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="13">
         <v>120</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="10"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C7FC9-B826-452A-96AD-964845C05493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C972185E-C263-488D-8AD7-C4ECE7473D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -2458,7 +2458,9 @@
       <c r="E53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="20">
+        <v>44531</v>
+      </c>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C972185E-C263-488D-8AD7-C4ECE7473D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1A7E5-9CA8-4B75-B41F-66E2590695C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2477,9 @@
       <c r="E54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="20">
+        <v>44532</v>
+      </c>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2494,7 +2496,9 @@
       <c r="E55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F55" s="20"/>
+      <c r="F55" s="20">
+        <v>44533</v>
+      </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1A7E5-9CA8-4B75-B41F-66E2590695C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE605D70-3A5A-4F30-A349-F064A140319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2509,13 +2509,15 @@
         <v>162</v>
       </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="3">
+      <c r="D56" s="28">
         <v>78</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F56" s="20"/>
+      <c r="F56" s="29">
+        <v>44534</v>
+      </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE605D70-3A5A-4F30-A349-F064A140319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284961E-72BE-4011-A8AF-524BF97E0D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2782,7 +2782,9 @@
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="14">
+        <v>44535</v>
+      </c>
       <c r="D72" s="3">
         <v>121</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284961E-72BE-4011-A8AF-524BF97E0D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770666F8-C529-4AA0-A588-91BD98CC5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2801,7 +2801,9 @@
       <c r="B73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="14"/>
+      <c r="C73" s="14">
+        <v>44536</v>
+      </c>
       <c r="D73" s="3">
         <v>64</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770666F8-C529-4AA0-A588-91BD98CC5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C68E97-0A3E-4281-BC0E-5F173562823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="193">
   <si>
     <t>数组</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -660,6 +660,10 @@
   </si>
   <si>
     <t>只出现一次的数字II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 142</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1470,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2815,12 +2819,14 @@
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="14">
+        <v>44537</v>
+      </c>
       <c r="D74" s="3">
         <v>198</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C68E97-0A3E-4281-BC0E-5F173562823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F8145-F29C-484C-B019-2D3B806E807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2843,7 +2843,9 @@
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="14">
+        <v>44538</v>
+      </c>
       <c r="D75" s="3">
         <v>213</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F8145-F29C-484C-B019-2D3B806E807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C2332D-015F-4488-9639-1D47AC315417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2856,13 +2856,15 @@
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="24">
+        <v>44539</v>
+      </c>
       <c r="D76" s="3">
         <v>5</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C2332D-015F-4488-9639-1D47AC315417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370AF0A-D725-49BA-A689-587F1905C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,58 @@
           </rPr>
           <t xml:space="preserve">
 ？？？</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A76" authorId="0" shapeId="0" xr:uid="{14F43E0B-7DF0-4BA8-9594-0E26791899D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>张三:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两数之和就算了，还傻逼一样的三数之和、四树之和，结果就是循环套循环。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{513F237A-7F6C-449D-8DE2-F2DC478E9F04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>张三:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1035,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,9 +1103,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,9 +1133,6 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1194,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,36 +1529,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1512,7 +1567,7 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1521,10 +1576,10 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1533,7 +1588,7 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>44485</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1542,19 +1597,19 @@
       <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>44505</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>44489</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1563,10 +1618,10 @@
       <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>44506</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1575,7 +1630,7 @@
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>44500</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1584,10 +1639,10 @@
       <c r="E5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>44507</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1596,7 +1651,7 @@
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1605,10 +1660,10 @@
       <c r="E6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>44508</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1617,7 +1672,7 @@
       <c r="B7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1626,10 +1681,10 @@
       <c r="E7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>44509</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1638,7 +1693,7 @@
       <c r="B8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1647,19 +1702,19 @@
       <c r="E8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>44510</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1668,23 +1723,23 @@
       <c r="E9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>44511</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1693,7 +1748,7 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1702,10 +1757,10 @@
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1714,7 +1769,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>44513</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1723,10 +1778,10 @@
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>44524</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1735,7 +1790,7 @@
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>44514</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1744,8 +1799,8 @@
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1754,19 +1809,19 @@
       <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>44515</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>3</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="27">
         <v>44525</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1775,7 +1830,7 @@
       <c r="B15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>44515</v>
       </c>
       <c r="D15" s="3">
@@ -1784,10 +1839,10 @@
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>44526</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1796,7 +1851,7 @@
       <c r="B16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>44516</v>
       </c>
       <c r="D16" s="3">
@@ -1805,19 +1860,19 @@
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>44527</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>44517</v>
       </c>
       <c r="D17" s="3">
@@ -1826,44 +1881,44 @@
       <c r="E17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>44528</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1872,7 +1927,7 @@
       <c r="B20" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>44517</v>
       </c>
       <c r="D20" s="3">
@@ -1881,8 +1936,8 @@
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1891,7 +1946,7 @@
       <c r="B21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>44518</v>
       </c>
       <c r="D21" s="3">
@@ -1900,8 +1955,8 @@
       <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1910,7 +1965,7 @@
       <c r="B22" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>44518</v>
       </c>
       <c r="D22" s="3">
@@ -1919,23 +1974,23 @@
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1944,7 +1999,7 @@
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
@@ -1953,8 +2008,8 @@
       <c r="E24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1963,7 +2018,7 @@
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>44519</v>
       </c>
       <c r="D25" s="3">
@@ -1972,8 +2027,8 @@
       <c r="E25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1982,7 +2037,7 @@
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>44520</v>
       </c>
       <c r="D26" s="3">
@@ -1991,17 +2046,17 @@
       <c r="E26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>44521</v>
       </c>
       <c r="D27" s="3">
@@ -2010,8 +2065,8 @@
       <c r="E27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2020,7 +2075,7 @@
       <c r="B28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>44521</v>
       </c>
       <c r="D28" s="3">
@@ -2029,8 +2084,8 @@
       <c r="E28" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2039,7 +2094,7 @@
       <c r="B29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>44522</v>
       </c>
       <c r="D29" s="3">
@@ -2048,42 +2103,42 @@
       <c r="E29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>44523</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="10"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2092,7 +2147,7 @@
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="3">
@@ -2101,8 +2156,8 @@
       <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2111,15 +2166,15 @@
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3">
         <v>169</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="10"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -2128,15 +2183,15 @@
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="10"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -2145,15 +2200,15 @@
       <c r="B35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3">
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -2162,15 +2217,15 @@
       <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2179,15 +2234,15 @@
       <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="10"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -2196,13 +2251,13 @@
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="33" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="10"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -2211,32 +2266,32 @@
       <c r="B39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="3">
         <v>155</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -2245,7 +2300,7 @@
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3">
@@ -2254,8 +2309,8 @@
       <c r="E41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -2264,15 +2319,15 @@
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -2281,15 +2336,15 @@
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2298,15 +2353,15 @@
       <c r="B44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2315,15 +2370,15 @@
       <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="10"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -2332,30 +2387,30 @@
       <c r="B46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="10"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="15"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="3">
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="10"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -2364,7 +2419,7 @@
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="3">
@@ -2373,8 +2428,8 @@
       <c r="E48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -2383,13 +2438,13 @@
       <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="33" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="10"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -2398,17 +2453,17 @@
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2417,17 +2472,17 @@
       <c r="B51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="3">
         <v>136</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="18">
         <v>44529</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -2436,17 +2491,17 @@
       <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="28">
+      <c r="C52" s="13"/>
+      <c r="D52" s="26">
         <v>137</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="27">
         <v>44530</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -2455,17 +2510,17 @@
       <c r="B53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <v>44531</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -2474,17 +2529,17 @@
       <c r="B54" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="18">
         <v>44532</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -2493,17 +2548,17 @@
       <c r="B55" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <v>44533</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -2512,17 +2567,17 @@
       <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="28">
+      <c r="C56" s="13"/>
+      <c r="D56" s="26">
         <v>78</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="27">
         <v>44534</v>
       </c>
-      <c r="G56" s="10"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -2531,13 +2586,13 @@
       <c r="B57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="33" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="10"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2546,17 +2601,17 @@
       <c r="B58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -2565,15 +2620,15 @@
       <c r="B59" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="3">
         <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="10"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -2582,15 +2637,15 @@
       <c r="B60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="3">
         <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="10"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -2599,15 +2654,15 @@
       <c r="B61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="10"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -2616,15 +2671,15 @@
       <c r="B62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="14"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="10"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -2633,15 +2688,15 @@
       <c r="B63" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="10"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2650,30 +2705,30 @@
       <c r="B64" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="10"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="10"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -2682,7 +2737,7 @@
       <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="3">
@@ -2691,8 +2746,8 @@
       <c r="E66" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="10"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -2701,13 +2756,13 @@
       <c r="B67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="33" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="10"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -2716,17 +2771,17 @@
       <c r="B68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="10"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -2735,30 +2790,30 @@
       <c r="B69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="3">
         <v>509</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="10"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="10"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -2767,7 +2822,7 @@
       <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="3">
@@ -2776,8 +2831,8 @@
       <c r="E71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="10"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -2786,7 +2841,7 @@
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="13">
         <v>44535</v>
       </c>
       <c r="D72" s="3">
@@ -2795,8 +2850,8 @@
       <c r="E72" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="10"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -2805,7 +2860,7 @@
       <c r="B73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="13">
         <v>44536</v>
       </c>
       <c r="D73" s="3">
@@ -2814,8 +2869,8 @@
       <c r="E73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="10"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -2824,7 +2879,7 @@
       <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="13">
         <v>44537</v>
       </c>
       <c r="D74" s="3">
@@ -2833,8 +2888,8 @@
       <c r="E74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="10"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -2843,7 +2898,7 @@
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="13">
         <v>44538</v>
       </c>
       <c r="D75" s="3">
@@ -2852,17 +2907,17 @@
       <c r="E75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="10"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="22">
         <v>44539</v>
       </c>
       <c r="D76" s="3">
@@ -2871,33 +2926,35 @@
       <c r="E76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="10"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="13">
+      <c r="C77" s="38">
+        <v>44540</v>
+      </c>
+      <c r="D77" s="12">
         <v>120</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="10"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="17"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370AF0A-D725-49BA-A689-587F1905C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D7651-D4D6-421B-9C3F-6E2635B9C141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1172,6 +1172,15 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,15 +1203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="A67" sqref="A67:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1548,11 +1548,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
@@ -1729,16 +1729,16 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1894,11 +1894,11 @@
         <v>115</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -1978,11 +1978,11 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="3">
         <v>860</v>
       </c>
@@ -2116,19 +2116,19 @@
       <c r="C30" s="22">
         <v>44523</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2252,11 +2252,11 @@
         <v>21</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2439,11 +2439,11 @@
         <v>31</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2587,11 +2587,11 @@
         <v>169</v>
       </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2716,11 +2716,11 @@
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="3" t="s">
         <v>159</v>
       </c>
@@ -2750,18 +2750,20 @@
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="20">
         <v>841</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="31" t="s">
+      <c r="C67" s="22">
+        <v>44541</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="35"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2801,11 +2803,11 @@
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="3">
         <v>70</v>
       </c>
@@ -2930,13 +2932,13 @@
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="30">
         <v>44540</v>
       </c>
       <c r="D77" s="12">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D7651-D4D6-421B-9C3F-6E2635B9C141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C3FD9-A5A3-4B7C-8B7E-8177A732AED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:C67"/>
+      <selection activeCell="A68" sqref="A68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2767,13 +2767,15 @@
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="20">
         <v>133</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="22">
+        <v>44542</v>
+      </c>
       <c r="D68" s="3" t="s">
         <v>19</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C3FD9-A5A3-4B7C-8B7E-8177A732AED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE96E0-0738-4DD1-84D7-A9370183499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:C68"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2788,13 +2788,15 @@
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="20">
         <v>1162</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="22">
+        <v>44543</v>
+      </c>
       <c r="D69" s="3">
         <v>509</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE96E0-0738-4DD1-84D7-A9370183499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C299D-ED95-4D3E-94D4-C3BF2A0DE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -2166,7 +2166,9 @@
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <v>44544</v>
+      </c>
       <c r="D33" s="3">
         <v>169</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C299D-ED95-4D3E-94D4-C3BF2A0DE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29C173-250E-4CAD-B1E6-CC7E59FDEFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2185,7 +2185,9 @@
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13">
+        <v>44545</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29C173-250E-4CAD-B1E6-CC7E59FDEFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B606B7-A9A5-4349-9DD2-E4906A9E8536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>队列的最大值</t>
   </si>
   <si>
-    <t>只出现一次的数字IⅡI</t>
-  </si>
-  <si>
     <t>组合总和I</t>
   </si>
   <si>
@@ -716,6 +713,10 @@
   </si>
   <si>
     <t>leetcode 142</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字III</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1529,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1646,19 +1647,19 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="13">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="18">
         <v>44508</v>
@@ -1667,19 +1668,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C7" s="13">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F7" s="18">
         <v>44509</v>
@@ -1688,19 +1689,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C8" s="13">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F8" s="18">
         <v>44510</v>
@@ -1709,19 +1710,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>152</v>
       </c>
       <c r="C9" s="22">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F9" s="18">
         <v>44511</v>
@@ -1794,7 +1795,7 @@
         <v>44514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1828,7 +1829,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="13">
         <v>44515</v>
@@ -1846,10 +1847,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C16" s="13">
         <v>44516</v>
@@ -1870,7 +1871,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="25">
         <v>44517</v>
@@ -1879,7 +1880,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="18">
         <v>44528</v>
@@ -1891,7 +1892,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="34" t="s">
@@ -1903,10 +1904,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="3" t="s">
@@ -1922,10 +1923,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C20" s="13">
         <v>44517</v>
@@ -1941,10 +1942,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C21" s="13">
         <v>44518</v>
@@ -1960,10 +1961,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C22" s="13">
         <v>44518</v>
@@ -1987,7 +1988,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="9"/>
@@ -2006,7 +2007,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="9"/>
@@ -2025,7 +2026,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="9"/>
@@ -2044,14 +2045,14 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>72</v>
@@ -2063,17 +2064,17 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="13">
         <v>44521</v>
@@ -2082,17 +2083,17 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C29" s="13">
         <v>44522</v>
@@ -2101,17 +2102,17 @@
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="22">
         <v>44523</v>
@@ -2204,46 +2205,48 @@
       <c r="B35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="13">
+        <v>44546</v>
+      </c>
       <c r="D35" s="3">
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="9"/>
@@ -2265,10 +2268,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="3" t="s">
@@ -2342,7 +2345,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>62</v>
@@ -2362,41 +2365,41 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="9"/>
@@ -2411,7 +2414,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="9"/>
@@ -2430,7 +2433,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="9"/>
@@ -2490,17 +2493,17 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="26">
         <v>137</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F52" s="27">
         <v>44530</v>
@@ -2509,17 +2512,17 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="F53" s="18">
         <v>44531</v>
@@ -2528,17 +2531,17 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F54" s="18">
         <v>44532</v>
@@ -2550,14 +2553,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F55" s="18">
         <v>44533</v>
@@ -2569,14 +2572,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="26">
         <v>78</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" s="27">
         <v>44534</v>
@@ -2588,7 +2591,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="34" t="s">
@@ -2603,7 +2606,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
@@ -2619,10 +2622,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="3">
@@ -2639,7 +2642,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="3">
@@ -2656,14 +2659,14 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="9"/>
@@ -2673,14 +2676,14 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="9"/>
@@ -2690,14 +2693,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="9"/>
@@ -2707,14 +2710,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="9"/>
@@ -2726,10 +2729,10 @@
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="9"/>
@@ -2748,7 +2751,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="9"/>
@@ -2839,7 +2842,7 @@
         <v>746</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="9"/>
@@ -2858,7 +2861,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="9"/>
@@ -2877,14 +2880,14 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>81</v>
@@ -2896,17 +2899,17 @@
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C75" s="13">
         <v>44538</v>
@@ -2915,17 +2918,17 @@
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="C76" s="22">
         <v>44539</v>
@@ -2934,17 +2937,17 @@
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="C77" s="30">
         <v>44540</v>
@@ -2953,7 +2956,7 @@
         <v>120</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="9"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B606B7-A9A5-4349-9DD2-E4906A9E8536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4146E-2758-40A9-A447-716711662066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -418,9 +418,6 @@
     <t>左旋转字符串</t>
   </si>
   <si>
-    <t xml:space="preserve">剑指Offer 56 - </t>
-  </si>
-  <si>
     <t>数组中数字出现的次数II</t>
   </si>
   <si>
@@ -717,6 +714,10 @@
   </si>
   <si>
     <t>只出现一次的数字III</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 56 - II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1530,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1656,10 +1657,10 @@
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="18">
         <v>44508</v>
@@ -1668,19 +1669,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="13">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="18">
         <v>44509</v>
@@ -1689,19 +1690,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C8" s="13">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F8" s="18">
         <v>44510</v>
@@ -1710,19 +1711,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="C9" s="22">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F9" s="18">
         <v>44511</v>
@@ -1795,7 +1796,7 @@
         <v>44514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1847,10 +1848,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C16" s="13">
         <v>44516</v>
@@ -1871,7 +1872,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="25">
         <v>44517</v>
@@ -1880,7 +1881,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="18">
         <v>44528</v>
@@ -1892,7 +1893,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="34" t="s">
@@ -1904,10 +1905,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>114</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="3" t="s">
@@ -1923,10 +1924,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C20" s="13">
         <v>44517</v>
@@ -1942,10 +1943,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C21" s="13">
         <v>44518</v>
@@ -1961,10 +1962,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C22" s="13">
         <v>44518</v>
@@ -1988,7 +1989,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="9"/>
@@ -2007,7 +2008,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="9"/>
@@ -2026,7 +2027,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="9"/>
@@ -2045,14 +2046,14 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>72</v>
@@ -2064,14 +2065,14 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>94</v>
@@ -2083,17 +2084,17 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C29" s="13">
         <v>44522</v>
@@ -2102,17 +2103,17 @@
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="22">
         <v>44523</v>
@@ -2212,41 +2213,43 @@
         <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="22">
+        <v>44547</v>
+      </c>
       <c r="D36" s="3">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="9"/>
@@ -2268,10 +2271,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="3" t="s">
@@ -2345,7 +2348,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>62</v>
@@ -2365,41 +2368,41 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="3">
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="3">
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="9"/>
@@ -2414,7 +2417,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="9"/>
@@ -2433,7 +2436,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="9"/>
@@ -2493,17 +2496,17 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="26">
         <v>137</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F52" s="27">
         <v>44530</v>
@@ -2512,17 +2515,17 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" s="18">
         <v>44531</v>
@@ -2531,17 +2534,17 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F54" s="18">
         <v>44532</v>
@@ -2553,14 +2556,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F55" s="18">
         <v>44533</v>
@@ -2572,14 +2575,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="26">
         <v>78</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56" s="27">
         <v>44534</v>
@@ -2591,7 +2594,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="34" t="s">
@@ -2606,7 +2609,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
@@ -2622,10 +2625,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="3">
@@ -2642,7 +2645,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="3">
@@ -2659,7 +2662,7 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="3">
@@ -2676,14 +2679,14 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="3">
         <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="9"/>
@@ -2693,14 +2696,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="9"/>
@@ -2710,14 +2713,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="9"/>
@@ -2729,10 +2732,10 @@
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="9"/>
@@ -2751,7 +2754,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="9"/>
@@ -2861,7 +2864,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="9"/>
@@ -2880,14 +2883,14 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>81</v>
@@ -2899,17 +2902,17 @@
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C75" s="13">
         <v>44538</v>
@@ -2918,17 +2921,17 @@
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="C76" s="22">
         <v>44539</v>
@@ -2937,17 +2940,17 @@
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>140</v>
       </c>
       <c r="C77" s="30">
         <v>44540</v>
@@ -2956,7 +2959,7 @@
         <v>120</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="9"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4146E-2758-40A9-A447-716711662066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F80CB2-F53F-42B0-B6AE-A8E6DEEEC1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C36"/>
+      <selection activeCell="A37" sqref="A37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2238,13 +2238,15 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="22">
+        <v>44548</v>
+      </c>
       <c r="D37" s="3">
         <v>4</v>
       </c>
@@ -2255,13 +2257,15 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="22">
+        <v>44549</v>
+      </c>
       <c r="D38" s="34" t="s">
         <v>12</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F80CB2-F53F-42B0-B6AE-A8E6DEEEC1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF35F24-FCD2-410A-8B89-A5E4A5566143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2280,9 @@
       <c r="B39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13">
+        <v>44550</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>19</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF35F24-FCD2-410A-8B89-A5E4A5566143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA3F84-2DAA-4A9C-B92B-A405E642B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2335,9 @@
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13">
+        <v>44551</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>87</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FA3F84-2DAA-4A9C-B92B-A405E642B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C6C06-577E-48D8-B3D3-B4CD531CC4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2354,9 @@
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>44552</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>105</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C6C06-577E-48D8-B3D3-B4CD531CC4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF1694-FC7E-4617-BDDE-F05BF4DECB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A44" sqref="A44:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2367,13 +2367,15 @@
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="22">
+        <v>44553</v>
+      </c>
       <c r="D44" s="3">
         <v>42</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF1694-FC7E-4617-BDDE-F05BF4DECB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B4D0C-F32C-4ABC-A16E-C1AE778F04DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2392,9 @@
       <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13">
+        <v>44554</v>
+      </c>
       <c r="D45" s="3">
         <v>496</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B4D0C-F32C-4ABC-A16E-C1AE778F04DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B5586-0EE0-49CC-9793-FE4AAEFFB882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,9 @@
       <c r="B46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13">
+        <v>44555</v>
+      </c>
       <c r="D46" s="3">
         <v>496</v>
       </c>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B5586-0EE0-49CC-9793-FE4AAEFFB882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449484A1-4C89-40FE-9712-F0C90417659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,9 @@
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18">
+        <v>44556</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449484A1-4C89-40FE-9712-F0C90417659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6415B-16EE-4EDA-B309-2BB02FF9980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1716" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1959,9 @@
       <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>44557</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6415B-16EE-4EDA-B309-2BB02FF9980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846EB5E-C823-4EC8-94A7-D96D3D3A9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1980,9 @@
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>44558</v>
+      </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846EB5E-C823-4EC8-94A7-D96D3D3A9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502673F-F24C-40FC-B1BE-05F61773F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1997,7 +1997,9 @@
       <c r="E23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>44559</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502673F-F24C-40FC-B1BE-05F61773F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4430DDF-A42A-4D20-B05A-5C7BB2A8983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -511,9 +511,6 @@
     <t>寻找旋转排序数组中的最小值</t>
   </si>
   <si>
-    <t>买卖股票的最佳时机IП</t>
-  </si>
-  <si>
     <t>合并K个升序链表</t>
   </si>
   <si>
@@ -718,6 +715,10 @@
   </si>
   <si>
     <t>剑指Offer 56 - II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1661,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="18">
         <v>44508</v>
@@ -1690,19 +1691,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C8" s="13">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F8" s="18">
         <v>44510</v>
@@ -1711,19 +1712,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="C9" s="22">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F9" s="18">
         <v>44511</v>
@@ -1796,7 +1797,7 @@
         <v>44514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1881,7 +1882,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="18">
         <v>44528</v>
@@ -1924,10 +1925,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C20" s="13">
         <v>44517</v>
@@ -1945,10 +1946,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C21" s="13">
         <v>44518</v>
@@ -1966,10 +1967,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C22" s="13">
         <v>44518</v>
@@ -2016,9 +2017,11 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="F24" s="18">
+        <v>44550</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2035,7 +2038,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="9"/>
@@ -2054,14 +2057,14 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>72</v>
@@ -2073,14 +2076,14 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>94</v>
@@ -2092,7 +2095,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="9"/>
@@ -2111,17 +2114,17 @@
         <v>738</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="22">
         <v>44523</v>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>95</v>
@@ -2240,7 +2243,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="9"/>
@@ -2259,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="9"/>
@@ -2283,10 +2286,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C39" s="13">
         <v>44550</v>
@@ -2388,7 +2391,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="9"/>
@@ -2407,7 +2410,7 @@
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="9"/>
@@ -2426,7 +2429,7 @@
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="9"/>
@@ -2441,7 +2444,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="9"/>
@@ -2460,7 +2463,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="9"/>
@@ -2530,7 +2533,7 @@
         <v>137</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F52" s="27">
         <v>44530</v>
@@ -2549,7 +2552,7 @@
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F53" s="18">
         <v>44531</v>
@@ -2558,10 +2561,10 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
@@ -2580,14 +2583,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F55" s="18">
         <v>44533</v>
@@ -2599,14 +2602,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="26">
         <v>78</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="27">
         <v>44534</v>
@@ -2618,7 +2621,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="34" t="s">
@@ -2633,7 +2636,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
@@ -2649,10 +2652,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="3">
@@ -2669,7 +2672,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="3">
@@ -2686,7 +2689,7 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="3">
@@ -2703,7 +2706,7 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="3">
@@ -2720,14 +2723,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="9"/>
@@ -2737,14 +2740,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="9"/>
@@ -2756,10 +2759,10 @@
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="9"/>
@@ -2778,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="9"/>
@@ -2907,14 +2910,14 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>81</v>
@@ -2926,7 +2929,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="9"/>
@@ -2945,7 +2948,7 @@
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="9"/>
@@ -2964,17 +2967,17 @@
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>139</v>
       </c>
       <c r="C77" s="30">
         <v>44540</v>
@@ -2983,7 +2986,7 @@
         <v>120</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="9"/>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4430DDF-A42A-4D20-B05A-5C7BB2A8983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8FED2-F51B-436F-B57A-F6B8E12C8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2034,13 +2034,15 @@
       <c r="C25" s="13">
         <v>44519</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="26">
         <v>134</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="27">
+        <v>44561</v>
+      </c>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8FED2-F51B-436F-B57A-F6B8E12C8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF84309-22B8-4803-BFC1-9680777A4B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2061,9 @@
       <c r="E26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18">
+        <v>44563</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF84309-22B8-4803-BFC1-9680777A4B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAF7EF-30B8-4A5F-BD53-676A7C28BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2082,9 @@
       <c r="E27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="18">
+        <v>44199</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAF7EF-30B8-4A5F-BD53-676A7C28BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35808CB-27CA-445B-8F56-9905392ECCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D28" sqref="D28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2083,7 @@
         <v>160</v>
       </c>
       <c r="F27" s="18">
-        <v>44199</v>
+        <v>44564</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -2097,13 +2097,15 @@
       <c r="C28" s="13">
         <v>44521</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="26">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="27">
+        <v>44565</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35808CB-27CA-445B-8F56-9905392ECCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136D77BA-89F5-4963-92AF-FF83217EF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:F28"/>
+      <selection activeCell="D29" sqref="D29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2118,13 +2118,15 @@
       <c r="C29" s="13">
         <v>44522</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="26">
         <v>738</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="27">
+        <v>44566</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136D77BA-89F5-4963-92AF-FF83217EF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A2E8C-A7D5-46E6-A24A-D7B055B0CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2321,13 +2321,15 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="3">
+      <c r="D40" s="26">
         <v>155</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="27">
+        <v>44567</v>
+      </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A2E8C-A7D5-46E6-A24A-D7B055B0CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C27A5B-F531-4409-A95E-A186742CA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2173,13 +2173,15 @@
       <c r="C32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="26">
         <v>53</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="27">
+        <v>44568</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C27A5B-F531-4409-A95E-A186742CA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DDC47-45D4-4217-9307-2C12509C7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="1668" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2200,9 @@
       <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18">
+        <v>44571</v>
+      </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DDC47-45D4-4217-9307-2C12509C7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FB180-3637-458B-8B44-4CC84D5B64D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2221,9 @@
       <c r="E34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>44572</v>
+      </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FB180-3637-458B-8B44-4CC84D5B64D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C71DB-B1F9-435C-95BB-2BE7D5D41D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2236,13 +2236,15 @@
       <c r="C35" s="13">
         <v>44546</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="26">
         <v>215</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="27">
+        <v>44574</v>
+      </c>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C71DB-B1F9-435C-95BB-2BE7D5D41D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3A4CAC-BD25-45FB-B7C8-60A7321F25B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -2263,7 +2263,9 @@
       <c r="E36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="18">
+        <v>44575</v>
+      </c>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3A4CAC-BD25-45FB-B7C8-60A7321F25B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529A8020-7B4D-432A-A200-C0B049E57391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2278,13 +2278,15 @@
       <c r="C37" s="22">
         <v>44548</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="26">
         <v>4</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="27">
+        <v>44576</v>
+      </c>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529A8020-7B4D-432A-A200-C0B049E57391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88D2DD-8943-4FFC-B374-81641F5BB50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -2864,7 +2864,9 @@
       <c r="E69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="18"/>
+      <c r="F69" s="18">
+        <v>44577</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88D2DD-8943-4FFC-B374-81641F5BB50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBF2CC-E3D7-4AA4-8A56-871B9D2612CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="1092" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
+    <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2881,9 @@
       <c r="E70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="18"/>
+      <c r="F70" s="18">
+        <v>44578</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBF2CC-E3D7-4AA4-8A56-871B9D2612CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB93D0-D4C9-4DC6-B95F-871CC12F7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2902,9 @@
       <c r="E71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="18"/>
+      <c r="F71" s="18">
+        <v>44579</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB93D0-D4C9-4DC6-B95F-871CC12F7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7DEE9-C254-4320-BB2A-99C5C003D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2923,9 @@
       <c r="E72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="18"/>
+      <c r="F72" s="18">
+        <v>44580</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7DEE9-C254-4320-BB2A-99C5C003D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D5E1FF-7DBE-42B2-9446-DD05141BDC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2944,9 @@
       <c r="E73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="18"/>
+      <c r="F73" s="18">
+        <v>44581</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D5E1FF-7DBE-42B2-9446-DD05141BDC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DF95A-2EBE-4FCE-9340-2815C8955338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2965,9 @@
       <c r="E74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F74" s="18"/>
+      <c r="F74" s="18">
+        <v>44582</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DF95A-2EBE-4FCE-9340-2815C8955338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC44EB9-BDC8-480A-A313-EB9F0C26FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2986,7 +2986,9 @@
       <c r="E75" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="18"/>
+      <c r="F75" s="18">
+        <v>44583</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC44EB9-BDC8-480A-A313-EB9F0C26FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D0207A-A61C-42E7-BDD3-2F7AD1A9B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3007,9 @@
       <c r="E76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F76" s="18"/>
+      <c r="F76" s="18">
+        <v>44584</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D0207A-A61C-42E7-BDD3-2F7AD1A9B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5983034-BB2F-488C-853C-6D2DED10A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3028,7 +3028,9 @@
       <c r="E77" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F77" s="19"/>
+      <c r="F77" s="19">
+        <v>44585</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5983034-BB2F-488C-853C-6D2DED10A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF0286-18EE-4C88-B7A6-A80C22E76B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2682,13 +2682,15 @@
         <v>177</v>
       </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="3">
+      <c r="D59" s="26">
         <v>77</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="F59" s="27">
+        <v>44585</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF0286-18EE-4C88-B7A6-A80C22E76B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7258C-6DC3-42AB-BB58-15FD082E27E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>队列的最大值</t>
   </si>
   <si>
-    <t>组合总和I</t>
-  </si>
-  <si>
     <t>使用最小花费爬楼梯</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
   </si>
   <si>
     <t>不用加减乘除做加法</t>
-  </si>
-  <si>
-    <t>组合总和IHI</t>
   </si>
   <si>
     <t>买卖股票的最佳时机</t>
@@ -719,6 +713,14 @@
   </si>
   <si>
     <t>买卖股票的最佳时机II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和III</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1532,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F7F2C-9D1D-4005-BDA3-1605DB5023EA}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:F59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1649,19 +1651,19 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C6" s="13">
         <v>44503</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F6" s="18">
         <v>44508</v>
@@ -1670,19 +1672,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="13">
         <v>44504</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="18">
         <v>44509</v>
@@ -1691,19 +1693,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="13">
         <v>44512</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="18">
         <v>44510</v>
@@ -1712,19 +1714,19 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="22">
         <v>44513</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="18">
         <v>44511</v>
@@ -1797,7 +1799,7 @@
         <v>44514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1831,7 +1833,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="13">
         <v>44515</v>
@@ -1849,10 +1851,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="13">
         <v>44516</v>
@@ -1873,7 +1875,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="25">
         <v>44517</v>
@@ -1882,7 +1884,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" s="18">
         <v>44528</v>
@@ -1894,7 +1896,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="34" t="s">
@@ -1906,10 +1908,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="3" t="s">
@@ -1925,10 +1927,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="13">
         <v>44517</v>
@@ -1946,10 +1948,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="13">
         <v>44518</v>
@@ -1967,10 +1969,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="13">
         <v>44518</v>
@@ -1996,7 +1998,7 @@
         <v>860</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="18">
         <v>44559</v>
@@ -2017,7 +2019,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F24" s="18">
         <v>44550</v>
@@ -2038,7 +2040,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="27">
         <v>44561</v>
@@ -2059,7 +2061,7 @@
         <v>406</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="18">
         <v>44563</v>
@@ -2068,7 +2070,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>72</v>
@@ -2080,7 +2082,7 @@
         <v>452</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="18">
         <v>44564</v>
@@ -2089,10 +2091,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="13">
         <v>44521</v>
@@ -2101,7 +2103,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F28" s="27">
         <v>44565</v>
@@ -2110,10 +2112,10 @@
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="13">
         <v>44522</v>
@@ -2122,7 +2124,7 @@
         <v>738</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F29" s="27">
         <v>44566</v>
@@ -2131,10 +2133,10 @@
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C30" s="22">
         <v>44523</v>
@@ -2240,7 +2242,7 @@
         <v>215</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="27">
         <v>44574</v>
@@ -2249,10 +2251,10 @@
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="22">
         <v>44547</v>
@@ -2261,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F36" s="18">
         <v>44575</v>
@@ -2270,10 +2272,10 @@
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="22">
         <v>44548</v>
@@ -2282,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F37" s="27">
         <v>44576</v>
@@ -2308,10 +2310,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C39" s="13">
         <v>44550</v>
@@ -2393,7 +2395,7 @@
         <v>44552</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>62</v>
@@ -2415,17 +2417,17 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C45" s="13">
         <v>44554</v>
@@ -2434,17 +2436,17 @@
         <v>496</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="13">
         <v>44555</v>
@@ -2453,7 +2455,7 @@
         <v>496</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="9"/>
@@ -2468,7 +2470,7 @@
         <v>503</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="9"/>
@@ -2487,7 +2489,7 @@
         <v>1081</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="9"/>
@@ -2547,17 +2549,17 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="26">
         <v>137</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F52" s="27">
         <v>44530</v>
@@ -2566,17 +2568,17 @@
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="3">
         <v>260</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" s="18">
         <v>44531</v>
@@ -2585,17 +2587,17 @@
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F54" s="18">
         <v>44532</v>
@@ -2607,14 +2609,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F55" s="18">
         <v>44533</v>
@@ -2626,14 +2628,14 @@
         <v>404</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="26">
         <v>78</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F56" s="27">
         <v>44534</v>
@@ -2645,7 +2647,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="34" t="s">
@@ -2660,7 +2662,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
@@ -2676,10 +2678,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="26">
@@ -2689,7 +2691,7 @@
         <v>43</v>
       </c>
       <c r="F59" s="27">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G59" s="9"/>
     </row>
@@ -2698,7 +2700,7 @@
         <v>700</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="3">
@@ -2715,14 +2717,14 @@
         <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="3">
         <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="9"/>
@@ -2732,16 +2734,18 @@
         <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="3">
+      <c r="D62" s="26">
         <v>216</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="18"/>
+      <c r="E62" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="27">
+        <v>44587</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
@@ -2749,14 +2753,14 @@
         <v>235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="3">
         <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="9"/>
@@ -2766,14 +2770,14 @@
         <v>669</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="3">
         <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="9"/>
@@ -2785,10 +2789,10 @@
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="9"/>
@@ -2807,7 +2811,7 @@
         <v>51</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="9"/>
@@ -2902,7 +2906,7 @@
         <v>746</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="18">
         <v>44579</v>
@@ -2923,7 +2927,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F72" s="18">
         <v>44580</v>
@@ -2944,7 +2948,7 @@
         <v>64</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F73" s="18">
         <v>44581</v>
@@ -2953,7 +2957,7 @@
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>81</v>
@@ -2965,7 +2969,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" s="18">
         <v>44582</v>
@@ -2974,10 +2978,10 @@
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C75" s="13">
         <v>44538</v>
@@ -2986,7 +2990,7 @@
         <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F75" s="18">
         <v>44583</v>
@@ -2995,10 +2999,10 @@
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C76" s="22">
         <v>44539</v>
@@ -3007,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F76" s="18">
         <v>44584</v>
@@ -3016,10 +3020,10 @@
     </row>
     <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C77" s="30">
         <v>44540</v>
@@ -3028,7 +3032,7 @@
         <v>120</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F77" s="19">
         <v>44585</v>

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7258C-6DC3-42AB-BB58-15FD082E27E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07083ECB-94AC-40B1-9C21-A27E3F39D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:F62"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2709,9 @@
       <c r="E60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="18"/>
+      <c r="F60" s="18">
+        <v>44588</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07083ECB-94AC-40B1-9C21-A27E3F39D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2D35A-B7C1-4217-9DA3-3504D741532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="D60" sqref="D60:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2703,13 +2703,13 @@
         <v>176</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="3">
+      <c r="D60" s="26">
         <v>39</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="27">
         <v>44588</v>
       </c>
       <c r="G60" s="9"/>
@@ -2722,13 +2722,15 @@
         <v>177</v>
       </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="3">
+      <c r="D61" s="26">
         <v>40</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F61" s="18"/>
+      <c r="F61" s="27">
+        <v>44589</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC2D35A-B7C1-4217-9DA3-3504D741532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB212EB0-BBA4-4ABE-9BE0-A281E7DC748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:F61"/>
+      <selection activeCell="D63" sqref="D63:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2760,13 +2760,15 @@
         <v>179</v>
       </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="3">
+      <c r="D63" s="26">
         <v>46</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="18"/>
+      <c r="F63" s="27">
+        <v>44590</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB212EB0-BBA4-4ABE-9BE0-A281E7DC748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB46275-B374-41B5-805E-041433CB20A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:F63"/>
+      <selection activeCell="D64" sqref="D64:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2779,13 +2779,15 @@
         <v>180</v>
       </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="3">
+      <c r="D64" s="26">
         <v>47</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="18"/>
+      <c r="F64" s="27">
+        <v>44591</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">

--- a/lc经典题目/lc经典题目.xlsx
+++ b/lc经典题目/lc经典题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\lc经典题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB46275-B374-41B5-805E-041433CB20A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDEC10-55ED-4608-82D7-FCF99520473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="17280" windowHeight="9072" xr2:uid="{23BBC273-E13C-45A9-971B-3C1764105EAB}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:F64"/>
+      <selection activeCell="D66" sqref="D66:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2815,13 +2815,15 @@
       <c r="C66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="26">
         <v>51</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="18"/>
+      <c r="F66" s="27">
+        <v>44592</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
